--- a/content/studio/attachments/start-with-data/Example.xlsx
+++ b/content/studio/attachments/start-with-data/Example.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msh\Dropbox (Mendix)\Local\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CC8FF7-D27F-471C-BEC7-7C25CDD6EBCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C54488-1E20-4B43-86E2-18D0FFC99894}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13562" windowHeight="4782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="4785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingDocs" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketingDocs!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="98">
   <si>
     <t>Title</t>
   </si>
@@ -271,13 +266,64 @@
     <t>x</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>www.youtube.com/videolink4</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink5</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink6</t>
+  </si>
+  <si>
+    <t>\\networkname\marketing\doclink5</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink7</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink8</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink9</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink10</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink11</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink12</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink13</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink14</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink15</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink16</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink17</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink18</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink19</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink20</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink21</t>
+  </si>
+  <si>
+    <t>www.youtube.com/videolink22</t>
   </si>
 </sst>
 </file>
@@ -666,25 +712,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.296875" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" customWidth="1"/>
-    <col min="9" max="9" width="19.296875" customWidth="1"/>
-    <col min="10" max="10" width="36.296875" customWidth="1"/>
-    <col min="11" max="11" width="18.59765625" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -724,9 +770,6 @@
       <c r="L1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
@@ -765,9 +808,6 @@
       <c r="L2" s="6">
         <v>3.5</v>
       </c>
-      <c r="M2" t="s">
-        <v>62</v>
-      </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14">
@@ -804,9 +844,6 @@
       <c r="L3" s="6">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14">
@@ -843,9 +880,6 @@
       <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>63</v>
-      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
@@ -879,9 +913,6 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
-        <v>80</v>
-      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
@@ -1018,7 +1049,7 @@
         <v>44012</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="K9" s="5">
         <v>1260</v>
@@ -1057,7 +1088,7 @@
         <v>44026</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="K10" s="5">
         <v>1650</v>
@@ -1093,7 +1124,7 @@
         <v>44074</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="K11" s="5">
         <v>570</v>
@@ -1168,7 +1199,7 @@
         <v>44076</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="K13" s="5">
         <v>570</v>
@@ -1276,7 +1307,7 @@
         <v>44079</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K16" s="5">
         <v>570</v>
@@ -1312,7 +1343,7 @@
         <v>44080</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="K17" s="5">
         <v>480</v>
@@ -1345,7 +1376,7 @@
         <v>44081</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="K18" s="5">
         <v>2460</v>
@@ -1381,7 +1412,7 @@
         <v>44082</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="K19" s="5">
         <v>2310</v>
@@ -1417,7 +1448,7 @@
         <v>44083</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="K20" s="5">
         <v>510</v>
@@ -1456,7 +1487,7 @@
         <v>44084</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="K21" s="5">
         <v>1860</v>
@@ -1495,7 +1526,7 @@
         <v>44085</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="K22" s="5">
         <v>540</v>
@@ -1531,7 +1562,7 @@
         <v>44086</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="K23" s="5">
         <v>1950</v>
@@ -1567,7 +1598,7 @@
         <v>44087</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="K24" s="5">
         <v>990</v>
@@ -1603,7 +1634,7 @@
         <v>44088</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="K25" s="5">
         <v>2550</v>
@@ -1636,7 +1667,7 @@
         <v>44104</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="K26" s="5">
         <v>1920</v>
@@ -1672,7 +1703,7 @@
         <v>44104</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="K27" s="5">
         <v>1020</v>
@@ -1708,7 +1739,7 @@
         <v>44104</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="K28" s="5">
         <v>1560</v>
@@ -1747,7 +1778,7 @@
         <v>44104</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="K29" s="5">
         <v>1050</v>
@@ -1783,7 +1814,7 @@
         <v>44104</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="K30" s="5">
         <v>2850</v>
@@ -1819,7 +1850,7 @@
         <v>44104</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="K31" s="5">
         <v>870</v>
@@ -2010,10 +2041,10 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2106,6 +2137,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2117,10 +2149,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.8984375" customWidth="1"/>
-    <col min="2" max="2" width="34.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
